--- a/document/figures_source/hcis/PinOut.xlsx
+++ b/document/figures_source/hcis/PinOut.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://htlsalzburg-my.sharepoint.com/personal/martin_kronberger_htl-salzburg_ac_at/Documents/HTBLuVA/5AHET/DIPL/Zentralsteuerung/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\Projects\HTBLuVA_Diplomarbeit\document\figures_source\hcis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{A25269E7-134D-446F-A839-5652F178A536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9F2A0C34-C20A-4CE4-8ADF-0E9B3B22D98A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F96B6D-52EB-4956-991A-EC49D48DAED4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="4332" windowWidth="23256" windowHeight="12576" xr2:uid="{673C86E5-6A72-48DA-91C5-2526F5D2F4D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{673C86E5-6A72-48DA-91C5-2526F5D2F4D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
   <si>
     <t>Raspberry Pi</t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>CAN-Modul | VCC1</t>
-  </si>
-  <si>
-    <t>Klemme</t>
   </si>
   <si>
     <t>Anschluss 1</t>
@@ -989,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11B112A-5FCA-453F-96B1-7E0F8C3AE0AD}">
   <dimension ref="C1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,10 +1006,10 @@
     <row r="1" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>43</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>44</v>
       </c>
       <c r="E2" s="28" t="s">
         <v>33</v>
@@ -1033,19 +1030,17 @@
         <v>33</v>
       </c>
       <c r="K2" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="22" t="s">
         <v>43</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" s="23"/>
-      <c r="D3" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>42</v>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24" t="s">
+        <v>52</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>2</v>
@@ -1109,7 +1104,7 @@
       <c r="C6" s="23"/>
       <c r="D6" s="24"/>
       <c r="E6" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>7</v>
@@ -1151,7 +1146,7 @@
       <c r="C8" s="23"/>
       <c r="D8" s="24"/>
       <c r="E8" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>10</v>
@@ -1166,7 +1161,7 @@
         <v>11</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="24"/>
@@ -1175,7 +1170,7 @@
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
       <c r="E9" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>12</v>
@@ -1197,7 +1192,7 @@
       <c r="C10" s="23"/>
       <c r="D10" s="24"/>
       <c r="E10" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>13</v>
@@ -1212,18 +1207,15 @@
         <v>14</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="24"/>
     </row>
     <row r="11" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" s="23"/>
-      <c r="D11" s="24" t="s">
+      <c r="E11" s="24" t="s">
         <v>35</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>42</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>2</v>
@@ -1238,7 +1230,7 @@
         <v>15</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="24"/>
@@ -1359,7 +1351,7 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
       <c r="E17" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>24</v>
@@ -1381,7 +1373,7 @@
       <c r="C18" s="23"/>
       <c r="D18" s="24"/>
       <c r="E18" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>25</v>
@@ -1396,7 +1388,7 @@
         <v>26</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K18" s="8"/>
       <c r="L18" s="24"/>
@@ -1405,7 +1397,7 @@
       <c r="C19" s="23"/>
       <c r="D19" s="24"/>
       <c r="E19" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>27</v>
@@ -1427,7 +1419,7 @@
       <c r="C20" s="23"/>
       <c r="D20" s="24"/>
       <c r="E20" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>28</v>
@@ -1442,7 +1434,7 @@
         <v>29</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K20" s="8"/>
       <c r="L20" s="24"/>
@@ -1451,7 +1443,7 @@
       <c r="C21" s="23"/>
       <c r="D21" s="24"/>
       <c r="E21" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>30</v>
@@ -1466,7 +1458,7 @@
         <v>31</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K21" s="8"/>
       <c r="L21" s="24"/>
@@ -1488,7 +1480,7 @@
         <v>32</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K22" s="27"/>
       <c r="L22" s="26"/>
